--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value406.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value406.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.092853413164698</v>
+        <v>3.07140851020813</v>
       </c>
       <c r="B1">
-        <v>1.361667964793756</v>
+        <v>2.875567197799683</v>
       </c>
       <c r="C1">
-        <v>1.945110335362122</v>
+        <v>1.993100523948669</v>
       </c>
       <c r="D1">
-        <v>3.734480522767805</v>
+        <v>1.784650087356567</v>
       </c>
       <c r="E1">
-        <v>1.494599248021901</v>
+        <v>1.700886249542236</v>
       </c>
     </row>
   </sheetData>
